--- a/data/trans_dic/Q20C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Edad-trans_dic.xlsx
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1147309112969553</v>
+        <v>0.116622194548844</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1519509917022741</v>
+        <v>0.1451483915080442</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1</v>
+        <v>0.7503590288400654</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>1</v>
@@ -756,10 +756,10 @@
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>1</v>
+        <v>0.7589711554978447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7440604816511366</v>
+        <v>0.7518996372936314</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0.285395341101997</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1838701255079059</v>
+        <v>0.1838701255079058</v>
       </c>
     </row>
     <row r="8">
@@ -861,33 +861,33 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.7874050671664781</v>
+        <v>0.7844050646837196</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6821457039323121</v>
+        <v>0.6915387451594124</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7841690042858238</v>
+        <v>0.7979398080017641</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>0.8014036587957079</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.5400504782758578</v>
+        <v>0.3682048801532183</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5873803611727022</v>
+        <v>0.4957779617893964</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7159733005340418</v>
+        <v>0.7159372495613284</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7919791221076991</v>
+        <v>0.7919791221076989</v>
       </c>
     </row>
     <row r="10">
@@ -923,7 +923,7 @@
         <v>0.120897287199325</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2576135505598691</v>
+        <v>0.257613550559869</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.0665278887600637</v>
@@ -957,25 +957,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1604301011166969</v>
+        <v>0.1540948994514615</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06810386530512202</v>
+        <v>0.07107498105300325</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09726279697460627</v>
+        <v>0.09868843834003796</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05927907762817785</v>
+        <v>0.0634983060955701</v>
       </c>
     </row>
     <row r="12">
@@ -987,35 +987,35 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.3692711645830394</v>
+        <v>0.3938013429738739</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.826361824807903</v>
+        <v>0.8269625535998864</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5565891154058272</v>
+        <v>0.5508340400717926</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6398735236284488</v>
+        <v>0.5888358475590709</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6034822309835526</v>
+        <v>0.5745458202723236</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5768486150388237</v>
+        <v>0.5713930805505198</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3571497517613535</v>
+        <v>0.2866271521061716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4009278042331423</v>
+        <v>0.433131600576849</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2960068858268622</v>
+        <v>0.2596778009715052</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4937857737736221</v>
+        <v>0.51075622641179</v>
       </c>
     </row>
     <row r="13">
@@ -1063,7 +1063,7 @@
         <v>0.4209228179115734</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2960286367111376</v>
+        <v>0.2960286367111375</v>
       </c>
     </row>
     <row r="14">
@@ -1074,40 +1074,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2202807624754853</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08406432519550885</v>
+        <v>0.08272072706328815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1047668648694086</v>
+        <v>0.1130654627029162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1928705702762698</v>
+        <v>0.179652833220796</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1778094380596818</v>
+        <v>0.20619252601358</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1500567863917787</v>
+        <v>0.1496606705042755</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1402814201628398</v>
+        <v>0.1336002418652236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1998662130628745</v>
+        <v>0.2055226038557258</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2195728888450534</v>
+        <v>0.1838481652860706</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1399256722892814</v>
+        <v>0.1467270272489689</v>
       </c>
     </row>
     <row r="15">
@@ -1121,37 +1121,37 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6303895707632455</v>
+        <v>0.5644159460639842</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7805554086693143</v>
+        <v>0.7789341946830943</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7389261746310042</v>
+        <v>0.7228621671636967</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5948108848853957</v>
+        <v>0.6005378166653538</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6025961359098767</v>
+        <v>0.6067305397915439</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7269806346743356</v>
+        <v>0.7294824119068799</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3157967550009335</v>
+        <v>0.3226217430336688</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6355846827004858</v>
+        <v>0.633652826650948</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5329332474634899</v>
+        <v>0.5466657763690878</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6437290751394342</v>
+        <v>0.6311785525909988</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4830721116187539</v>
+        <v>0.5144097926691771</v>
       </c>
     </row>
     <row r="16">
@@ -1219,29 +1219,29 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.081492420519794</v>
+        <v>0.08668681037664505</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>0.09840569886013509</v>
+        <v>0.09990934297306994</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1213522276039779</v>
+        <v>0.1248080597820498</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05278011450868308</v>
+        <v>0.05214350212843415</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08868048676875165</v>
+        <v>0.08708813299002059</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.131808952776332</v>
+        <v>0.1311706662299116</v>
       </c>
     </row>
     <row r="18">
@@ -1252,38 +1252,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5804336981424969</v>
+        <v>0.5829573458019027</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5501707103043155</v>
+        <v>0.5437730348755637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5598391785341725</v>
+        <v>0.5638282530670725</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4743019025862549</v>
+        <v>0.4790187154178381</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.551963199664691</v>
+        <v>0.4718903954938326</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.6993768073601183</v>
+        <v>0.7080269830143927</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5641417066140448</v>
+        <v>0.5768241742276176</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4128252383746274</v>
+        <v>0.4156316079431692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.310572982770444</v>
+        <v>0.3017716370920965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4962144505595205</v>
+        <v>0.4709929045043875</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4298282455995967</v>
+        <v>0.4306954099375869</v>
       </c>
     </row>
     <row r="19">
@@ -1345,37 +1345,37 @@
         <v>0.1917867633844276</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08607740503993834</v>
+        <v>0.08617155973222229</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1183819996226457</v>
+        <v>0.1136180911214318</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08485436177320284</v>
+        <v>0.08429812847061512</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07252305988273773</v>
+        <v>0.06995753797416056</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1094364277512487</v>
+        <v>0.1078114486377823</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1201740533099475</v>
+        <v>0.1244673069738294</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1342457263608221</v>
+        <v>0.1056411735368946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08776941443537553</v>
+        <v>0.08807092987073364</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1613449214119955</v>
+        <v>0.1714054737499728</v>
       </c>
     </row>
     <row r="21">
@@ -1389,37 +1389,37 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6649644571022173</v>
+        <v>0.6844505242634233</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.625443581919751</v>
+        <v>0.6207853940444015</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4984240747335725</v>
+        <v>0.4910419289033883</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4622938315078468</v>
+        <v>0.4694093930019061</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.595413051361794</v>
+        <v>0.5481190218061628</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5909925936687209</v>
+        <v>0.5485101149892896</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7196321636338687</v>
+        <v>0.7236172066145302</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6055817471160121</v>
+        <v>0.6439577729340084</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5457089424082389</v>
+        <v>0.5036080705271004</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4279636785421419</v>
+        <v>0.4489863998726296</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4793495144188861</v>
+        <v>0.4741556576720729</v>
       </c>
     </row>
     <row r="22">
@@ -1467,7 +1467,7 @@
         <v>0.05517277475499698</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07578723460917895</v>
+        <v>0.07578723460917894</v>
       </c>
     </row>
     <row r="23">
@@ -1489,7 +1489,7 @@
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.0308993795082828</v>
+        <v>0.03210288824351316</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02123613008692509</v>
+        <v>0.02173043253080563</v>
       </c>
     </row>
     <row r="24">
@@ -1512,26 +1512,26 @@
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.7148135614515991</v>
+        <v>0.6059725502657997</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>0.8000660744339844</v>
+        <v>0.8123986712316786</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.2916932188201587</v>
+        <v>0.2921885884805981</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.637646575446688</v>
+        <v>0.5372449510546305</v>
       </c>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="n">
-        <v>0.3251306931671121</v>
+        <v>0.2564890717283799</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2055645611557857</v>
+        <v>0.1935517232048233</v>
       </c>
     </row>
     <row r="25">
@@ -1579,7 +1579,7 @@
         <v>0.2435398874559074</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2470574150554286</v>
+        <v>0.2470574150554285</v>
       </c>
     </row>
     <row r="26">
@@ -1590,40 +1590,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1259375241777167</v>
+        <v>0.1183727587952329</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1813013118799221</v>
+        <v>0.186328504813216</v>
       </c>
     </row>
     <row r="27">
@@ -1634,40 +1634,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3116889990458611</v>
+        <v>0.3009081665139041</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3315481902648355</v>
+        <v>0.3288637809110352</v>
       </c>
     </row>
     <row r="28">
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>978</v>
+        <v>994</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="N6" s="6" t="inlineStr"/>
     </row>
@@ -1974,7 +1974,7 @@
         <v>2937</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4507</v>
+        <v>3382</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>3140</v>
@@ -1989,10 +1989,10 @@
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>3840</v>
+        <v>2914</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6345</v>
+        <v>6411</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>5574</v>
@@ -2138,27 +2138,27 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>3610</v>
+        <v>3596</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
         <v>3698</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4004</v>
+        <v>4059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>3886</v>
+        <v>3954</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>3764</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>5854</v>
+        <v>3991</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>5604</v>
+        <v>4730</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>4658</v>
@@ -2278,25 +2278,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2872</v>
+        <v>2758</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2933</v>
+        <v>2976</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>874</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15">
@@ -2308,35 +2308,35 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4527</v>
+        <v>4828</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3478</v>
+        <v>3442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11453</v>
+        <v>10540</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4604</v>
+        <v>4383</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5078</v>
+        <v>5030</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4313</v>
+        <v>3461</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12091</v>
+        <v>13062</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>4952</v>
+        <v>4345</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>7281</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="16">
@@ -2439,40 +2439,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1022</v>
+        <v>1103</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3230</v>
+        <v>3009</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4573</v>
+        <v>5303</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1916</v>
+        <v>1825</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>7667</v>
+        <v>7884</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4925</v>
+        <v>4124</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4167</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="19">
@@ -2486,37 +2486,37 @@
         <v>3806</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7971</v>
+        <v>7137</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7614</v>
+        <v>7599</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12375</v>
+        <v>12106</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5861</v>
+        <v>5918</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15497</v>
+        <v>15603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9216</v>
+        <v>9248</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4116</v>
+        <v>4205</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8681</v>
+        <v>8655</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>20444</v>
+        <v>20971</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14440</v>
+        <v>14159</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>14386</v>
+        <v>15319</v>
       </c>
     </row>
     <row r="20">
@@ -2628,29 +2628,29 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1281</v>
+        <v>1362</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="n">
-        <v>1090</v>
+        <v>1107</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1232</v>
+        <v>1267</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2232</v>
+        <v>2192</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3409</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="23">
@@ -2661,38 +2661,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4702</v>
+        <v>4722</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5110</v>
+        <v>5051</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7891</v>
+        <v>7947</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7454</v>
+        <v>7528</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5876</v>
+        <v>5024</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>7749</v>
+        <v>7845</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5726</v>
+        <v>5855</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7739</v>
+        <v>7792</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6233</v>
+        <v>6056</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12492</v>
+        <v>11857</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11118</v>
+        <v>11140</v>
       </c>
     </row>
     <row r="24">
@@ -2798,37 +2798,37 @@
         <v>960</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1801</v>
+        <v>1729</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>883</v>
+        <v>851</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1799</v>
+        <v>1863</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2849</v>
+        <v>2242</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1835</v>
+        <v>1842</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3341</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="27">
@@ -2842,37 +2842,37 @@
         <v>5006</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6732</v>
+        <v>6929</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5468</v>
+        <v>5427</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7584</v>
+        <v>7471</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4605</v>
+        <v>4676</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6606</v>
+        <v>6081</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7192</v>
+        <v>6675</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3954</v>
+        <v>3976</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9064</v>
+        <v>9639</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>11580</v>
+        <v>10687</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>8949</v>
+        <v>9389</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9927</v>
+        <v>9819</v>
       </c>
     </row>
     <row r="28">
@@ -2986,7 +2986,7 @@
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31">
@@ -3009,26 +3009,26 @@
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>3313</v>
+        <v>2809</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="n">
-        <v>4424</v>
+        <v>4492</v>
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>3106</v>
+        <v>3111</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5226</v>
+        <v>4403</v>
       </c>
       <c r="L31" s="6" t="inlineStr"/>
       <c r="M31" s="6" t="n">
-        <v>4616</v>
+        <v>3642</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>3266</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="32">
@@ -3131,40 +3131,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>6418</v>
+        <v>6033</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>20581</v>
+        <v>21152</v>
       </c>
     </row>
     <row r="35">
@@ -3175,40 +3175,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>15885</v>
+        <v>15335</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>37637</v>
+        <v>37333</v>
       </c>
     </row>
     <row r="36">
